--- a/medicine/Mort/Cimetière_militaire_britannique_de_la_ferme_de_Hem/Cimetière_militaire_britannique_de_la_ferme_de_Hem.xlsx
+++ b/medicine/Mort/Cimetière_militaire_britannique_de_la_ferme_de_Hem/Cimetière_militaire_britannique_de_la_ferme_de_Hem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_la_ferme_de_Hem</t>
+          <t>Cimetière_militaire_britannique_de_la_ferme_de_Hem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cimetière militaire de la ferme de Hem (Herm Farm Military Cemetery) est un cimetière militaire de la Première Guerre mondiale, situé sur le territoire de la commune de Hem-Monacu, dans le département de la Somme, au nord-est d'Amiens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_la_ferme_de_Hem</t>
+          <t>Cimetière_militaire_britannique_de_la_ferme_de_Hem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La ferme d'Hem a été le théâtre de violents combats lors de la bataille de la Somme. Le secteur  a été tour à tour aux mains des troupes françaises et alliées, puis aux mains des Allemands.
 Ce cimetière, implanté en janvier 1917 à une centaine de mètres des ruines de la Ferme d'Hem, a été commencé par les troupes britanniques  pour inhumer les victimes  des combats de la bataille de la Somme, puis de nouveau en 1918 avec le regroupement de soldats alliés tombés dans le secteur, notamment les corps de 46 soldats australiens  tombés en août et septembre 1918 initialement inhumés au cimetière de Curlu.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_la_ferme_de_Hem</t>
+          <t>Cimetière_militaire_britannique_de_la_ferme_de_Hem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le cimetière de l'allée de la ferme d'Hem est situé en pleine campagne, à proximité de la ferme éponyme, il compte 597 tombes de soldats, dont 204 sont non identifiés : 367 Britanniques, 138 Australiens, 88 Sud-Africains et 4 Canadiens.
-Sépultures</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de l'allée de la ferme d'Hem est situé en pleine campagne, à proximité de la ferme éponyme, il compte 597 tombes de soldats, dont 204 sont non identifiés : 367 Britanniques, 138 Australiens, 88 Sud-Africains et 4 Canadiens.
+</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_la_ferme_de_Hem</t>
+          <t>Cimetière_militaire_britannique_de_la_ferme_de_Hem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue du cimetière depuis la ferme d'Hem.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_la_ferme_de_Hem</t>
+          <t>Cimetière_militaire_britannique_de_la_ferme_de_Hem</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
